--- a/docs/DataDesign.xlsx
+++ b/docs/DataDesign.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="104">
   <si>
     <t>enjoycms_user</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -28,75 +28,386 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>sex</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>命名规则：表名和字段全部采用小写字母加下划线的规则</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>role_names</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mobile_phone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>email</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>last_login_time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>add_time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>enjoycms_site</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>enjoycms_channel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>enjoycms_info</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sourcePath</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>par_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>state</t>
+  </si>
+  <si>
+    <t>state</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>template</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>par_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>site</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>url</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>state</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>order_num</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>navigation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>page_mark</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>channel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>title</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>short_title</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>description</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>content</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>attachs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>imgs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>template</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>is_top</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>click_num</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>add_user</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>enjoycms_config</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>config_value</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>order_num</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字段配置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>栏目信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>enjoycms_depart</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>enjoycms_depart_users</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>role_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>channel_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>权限管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>enjoycms_func</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>depart_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>enjoycms_roles</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>enjoycms_role_site</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>enjoycms_role_channel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>enjoycms_role_func</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>add_user</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>role_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>site_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>site_admin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>order_num</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>url</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>par_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>func_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>enjoycms_link</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>par_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>url</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>order_num</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>site</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>img</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>login_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>opera_time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>content</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ip</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>操作日志</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>enjoycms_opera_logs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>template</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>enjoycms_template</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>enjoycms_template_channel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>click_num</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>navigation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pagemark</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>template_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>site</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>login_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>pwd</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>sex</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>birthday</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>tel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>命名规则：表名和字段全部采用小写字母加下划线的规则</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>login_name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>role_names</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mobile_phone</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>email</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>last_login_time</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>add_time</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>enjoycms_site</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>enjoycms_channel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>enjoycms_info</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sourcePath</t>
+    <t>depart_names</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>depart_ids</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -104,326 +415,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>state</t>
-  </si>
-  <si>
-    <t>state</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>template</t>
+    <t>enjoycms_role_users</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>author</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>publisher</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>par_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>site</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>url</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>state</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>order_num</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>navigation</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>page_mark</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>channel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>title</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>short_title</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>contributor</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>editor</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>description</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>content</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>attachs</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>imgs</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>template</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>is_top</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>click_num</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>add_user</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>enjoycms_config</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>code</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>config_value</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>order_num</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>字段配置</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>栏目信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>enjoycms_depart</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>depart_names</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>depart_ids</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>par_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>enjoycms_depart_users</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>role_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>channel_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>权限管理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>enjoycms_func</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>depart_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>enjoycms_roles</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>enjoycms_role_user</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>enjoycms_role_site</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>enjoycms_role_channel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>enjoycms_role_func</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>add_user</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>user_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>role_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>site_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>site_admin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>order_num</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>url</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>par_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>func_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>enjoycms_link</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>par_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>url</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>order_num</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>site</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>img</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>login_name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>opera_time</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>content</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ip</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>操作日志</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>enjoycms_opera_logs</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>template</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>enjoycms_template</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>enjoycms_template_channel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>click_num</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>navigation</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pagemark</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>template_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>site</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -506,9 +510,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -519,6 +520,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -827,8 +831,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="C52" sqref="C52"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E52" sqref="E52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -840,73 +844,72 @@
     <col min="5" max="5" width="12.75" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.75" customWidth="1"/>
     <col min="7" max="7" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="11.625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="20.25" x14ac:dyDescent="0.15">
-      <c r="A1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
+      <c r="A1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
     </row>
     <row r="2" spans="1:15" ht="20.25" x14ac:dyDescent="0.15">
       <c r="A2" s="5" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
     </row>
     <row r="3" spans="1:15" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A3" s="3" t="s">
-        <v>45</v>
+      <c r="A3" s="2" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="B4" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="C4" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="D4" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A8" s="5" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
     </row>
     <row r="9" spans="1:15" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="2" t="s">
         <v>0</v>
       </c>
     </row>
@@ -915,498 +918,498 @@
         <v>1</v>
       </c>
       <c r="B10" t="s">
+        <v>93</v>
+      </c>
+      <c r="C10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" t="s">
+        <v>94</v>
+      </c>
+      <c r="E10" t="s">
+        <v>3</v>
+      </c>
+      <c r="F10" t="s">
+        <v>95</v>
+      </c>
+      <c r="G10" t="s">
+        <v>4</v>
+      </c>
+      <c r="H10" t="s">
+        <v>7</v>
+      </c>
+      <c r="I10" t="s">
+        <v>8</v>
+      </c>
+      <c r="J10" t="s">
+        <v>18</v>
+      </c>
+      <c r="K10" t="s">
         <v>9</v>
       </c>
-      <c r="C10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10" t="s">
-        <v>3</v>
-      </c>
-      <c r="E10" t="s">
-        <v>4</v>
-      </c>
-      <c r="F10" t="s">
-        <v>5</v>
-      </c>
-      <c r="G10" t="s">
+      <c r="L10" t="s">
+        <v>96</v>
+      </c>
+      <c r="M10" t="s">
+        <v>97</v>
+      </c>
+      <c r="N10" t="s">
+        <v>98</v>
+      </c>
+      <c r="O10" t="s">
         <v>6</v>
       </c>
-      <c r="H10" t="s">
-        <v>11</v>
-      </c>
-      <c r="I10" t="s">
-        <v>12</v>
-      </c>
-      <c r="J10" t="s">
-        <v>22</v>
-      </c>
-      <c r="K10" t="s">
-        <v>13</v>
-      </c>
-      <c r="L10" t="s">
-        <v>14</v>
-      </c>
-      <c r="M10" t="s">
-        <v>53</v>
-      </c>
-      <c r="N10" t="s">
-        <v>54</v>
-      </c>
-      <c r="O10" t="s">
-        <v>10</v>
-      </c>
     </row>
     <row r="11" spans="1:15" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A11" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
+      <c r="A11" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B12" t="s">
         <v>2</v>
       </c>
       <c r="C12" t="s">
-        <v>55</v>
+        <v>99</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:15" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A13" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
+      <c r="A13" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="B14" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="C14" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="15" spans="1:15" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A15" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
+      <c r="A15" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B16" t="s">
         <v>2</v>
       </c>
       <c r="C16" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="D16" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E16" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="F16" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A17" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
+      <c r="A17" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B18" t="s">
         <v>2</v>
       </c>
       <c r="C18" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D18" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A19" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
+      <c r="A19" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="B20" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="C20" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A21" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="B21" s="6"/>
-      <c r="C21" s="6"/>
+      <c r="A21" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B22" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="C22" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="D22" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A23" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="B23" s="6"/>
-      <c r="C23" s="6"/>
+      <c r="A23" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="B24" t="s">
+        <v>49</v>
+      </c>
+      <c r="C24" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A25" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C24" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A25" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="B25" s="6"/>
-      <c r="C25" s="6"/>
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B26" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="C26" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A27" s="6"/>
-      <c r="B27" s="6"/>
-      <c r="C27" s="6"/>
+      <c r="A27" s="4"/>
+      <c r="B27" s="4"/>
+      <c r="C27" s="4"/>
     </row>
     <row r="28" spans="1:5" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A28" s="6"/>
-      <c r="B28" s="6"/>
-      <c r="C28" s="6"/>
+      <c r="A28" s="4"/>
+      <c r="B28" s="4"/>
+      <c r="C28" s="4"/>
     </row>
     <row r="29" spans="1:5" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A29" s="6"/>
-      <c r="B29" s="6"/>
-      <c r="C29" s="6"/>
+      <c r="A29" s="4"/>
+      <c r="B29" s="4"/>
+      <c r="C29" s="4"/>
     </row>
     <row r="30" spans="1:5" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A30" s="5" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
     </row>
     <row r="31" spans="1:5" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A31" s="3" t="s">
-        <v>15</v>
+      <c r="A31" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
+        <v>12</v>
+      </c>
+      <c r="B32" t="s">
+        <v>70</v>
+      </c>
+      <c r="C32" t="s">
+        <v>17</v>
+      </c>
+      <c r="D32" t="s">
+        <v>19</v>
+      </c>
+      <c r="E32" t="s">
         <v>16</v>
       </c>
-      <c r="B32" t="s">
-        <v>80</v>
-      </c>
-      <c r="C32" t="s">
-        <v>21</v>
-      </c>
-      <c r="D32" t="s">
-        <v>23</v>
-      </c>
-      <c r="E32" t="s">
-        <v>20</v>
-      </c>
     </row>
     <row r="33" spans="1:16" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A33" s="3" t="s">
-        <v>18</v>
+      <c r="A33" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B34" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="C34" t="s">
+        <v>21</v>
+      </c>
+      <c r="D34" t="s">
+        <v>24</v>
+      </c>
+      <c r="E34" t="s">
+        <v>20</v>
+      </c>
+      <c r="F34" t="s">
+        <v>22</v>
+      </c>
+      <c r="G34" t="s">
+        <v>23</v>
+      </c>
+      <c r="H34" t="s">
         <v>25</v>
       </c>
-      <c r="D34" t="s">
-        <v>28</v>
-      </c>
-      <c r="E34" t="s">
-        <v>24</v>
-      </c>
-      <c r="F34" t="s">
+      <c r="I34" t="s">
         <v>26</v>
       </c>
-      <c r="G34" t="s">
+      <c r="J34" t="s">
         <v>27</v>
       </c>
-      <c r="H34" t="s">
-        <v>29</v>
-      </c>
-      <c r="I34" t="s">
-        <v>30</v>
-      </c>
-      <c r="J34" t="s">
-        <v>31</v>
-      </c>
     </row>
     <row r="35" spans="1:16" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A35" s="3" t="s">
-        <v>19</v>
+      <c r="A35" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B36" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C36" t="s">
+        <v>28</v>
+      </c>
+      <c r="D36" t="s">
+        <v>29</v>
+      </c>
+      <c r="E36" t="s">
+        <v>30</v>
+      </c>
+      <c r="F36" t="s">
+        <v>101</v>
+      </c>
+      <c r="G36" t="s">
+        <v>102</v>
+      </c>
+      <c r="H36" t="s">
+        <v>31</v>
+      </c>
+      <c r="I36" t="s">
         <v>32</v>
       </c>
-      <c r="D36" t="s">
+      <c r="J36" t="s">
+        <v>34</v>
+      </c>
+      <c r="K36" t="s">
         <v>33</v>
       </c>
-      <c r="E36" t="s">
-        <v>34</v>
-      </c>
-      <c r="F36" t="s">
+      <c r="L36" t="s">
+        <v>10</v>
+      </c>
+      <c r="M36" t="s">
         <v>35</v>
       </c>
-      <c r="G36" t="s">
+      <c r="N36" t="s">
         <v>36</v>
       </c>
-      <c r="H36" t="s">
+      <c r="O36" t="s">
         <v>37</v>
       </c>
-      <c r="I36" t="s">
+      <c r="P36" t="s">
         <v>38</v>
       </c>
-      <c r="J36" t="s">
-        <v>40</v>
-      </c>
-      <c r="K36" t="s">
-        <v>39</v>
-      </c>
-      <c r="L36" t="s">
-        <v>14</v>
-      </c>
-      <c r="M36" t="s">
-        <v>41</v>
-      </c>
-      <c r="N36" t="s">
-        <v>42</v>
-      </c>
-      <c r="O36" t="s">
-        <v>43</v>
-      </c>
-      <c r="P36" t="s">
-        <v>44</v>
-      </c>
     </row>
     <row r="37" spans="1:16" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A37" s="3" t="s">
-        <v>78</v>
+      <c r="A37" s="2" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B38" t="s">
         <v>2</v>
       </c>
       <c r="C38" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="D38" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="E38" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F38" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="G38" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="H38" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="I38" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="J38" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="40" spans="1:16" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A40" s="3"/>
+      <c r="A40" s="2"/>
     </row>
     <row r="42" spans="1:16" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A42" s="5" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="B42" s="5"/>
       <c r="C42" s="5"/>
     </row>
     <row r="43" spans="1:16" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A43" s="3" t="s">
-        <v>92</v>
+      <c r="A43" s="2" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A44" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="B44" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="C44" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="D44" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="E44" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
     </row>
     <row r="48" spans="1:16" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A48" s="5" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="B48" s="5"/>
       <c r="C48" s="5"/>
     </row>
     <row r="49" spans="1:11" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A49" s="3" t="s">
-        <v>94</v>
+      <c r="A49" s="2" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A50" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="B50" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="C50" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D50" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="E50" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="F50" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
     </row>
     <row r="51" spans="1:11" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A51" s="3" t="s">
-        <v>96</v>
+      <c r="A51" s="2" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A52" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="B52" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="C52" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D52" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="E52" t="s">
+        <v>103</v>
+      </c>
+      <c r="F52" t="s">
+        <v>74</v>
+      </c>
+      <c r="G52" t="s">
         <v>25</v>
       </c>
-      <c r="F52" t="s">
-        <v>84</v>
-      </c>
-      <c r="G52" t="s">
-        <v>29</v>
-      </c>
       <c r="H52" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="I52" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="J52" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="K52" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="A48:C48"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="A8:C8"/>
     <mergeCell ref="A30:C30"/>
     <mergeCell ref="A42:C42"/>
-    <mergeCell ref="A48:C48"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>